--- a/trend_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
+++ b/trend_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0038713865497581</v>
+        <v>0.996128613450242</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.07972733116467889</v>
+        <v>0.920272668835321</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0074508915382763</v>
+        <v>0.992549108461724</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.342426285708972</v>
+        <v>0.657573714291028</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>

--- a/trend_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
+++ b/trend_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,14 +558,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.261191524357347</v>
+        <v>0.895943658464032</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5625</v>
+        <v>0.9807692307692309</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1</v>
+        <v>7.555</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0039292388752345</v>
+        <v>0.352456215659341</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.024081984352198</v>
+        <v>-0.128725225661293</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0049224249057642</v>
+        <v>0.700376591609486</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.92923887523459</v>
+        <v>4.66520470760213</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -649,46 +649,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8052380555109691</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.996128613450242</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.981818181818182</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.03</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.65804822565969</v>
+        <v>-0.061069869804109</v>
       </c>
       <c r="L3" t="n">
-        <v>0.273315300440287</v>
+        <v>-0.198903203963846</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9632983170514759</v>
+        <v>0.0650219904750277</v>
       </c>
       <c r="N3" t="n">
-        <v>9.3605721999956</v>
+        <v>-6.1069869804109</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.302826404381522</v>
+        <v>0.605857379774301</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H4" t="n">
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>0.956</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0445715855572999</v>
+        <v>-12.5863576855493</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0797546205599913</v>
+        <v>-271.774189765989</v>
       </c>
       <c r="M4" t="n">
-        <v>0.16253424079277</v>
+        <v>304.235248638082</v>
       </c>
       <c r="N4" t="n">
-        <v>4.66229974448743</v>
+        <v>-0.629317884277465</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -819,7 +819,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.704417351737785</v>
+        <v>0.982418034386236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0350877192982456</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8245614035087721</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1400</v>
+        <v>5.3202063257197</v>
       </c>
       <c r="K5" t="n">
-        <v>-41.4555847929723</v>
+        <v>-1.3076060142749</v>
       </c>
       <c r="L5" t="n">
-        <v>-314.809621357485</v>
+        <v>-2.71243273389138</v>
       </c>
       <c r="M5" t="n">
-        <v>126.508723525473</v>
+        <v>-0.236620543147382</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.96111319949802</v>
+        <v>-24.5781072052316</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.639595311766337</v>
+        <v>0.983580399343859</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.87575543883375</v>
+        <v>0.613</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.148373634396207</v>
+        <v>-0.09310434654631081</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.873163211815373</v>
+        <v>-0.186590571428571</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5735926348054901</v>
+        <v>-0.0221947398244991</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.52518396895119</v>
+        <v>-15.188311018974</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0287173917587408</v>
+        <v>0.9774271814565409</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.982456140350877</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.484</v>
+        <v>0.64</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0851202879008746</v>
+        <v>-0.07422276356456051</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0077248326936272</v>
+        <v>-0.141302945441254</v>
       </c>
       <c r="M7" t="n">
-        <v>0.183818371507599</v>
+        <v>-0.0111980557020838</v>
       </c>
       <c r="N7" t="n">
-        <v>17.5868363431559</v>
+        <v>-11.5973068069626</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.629469350947649</v>
+        <v>0.232340775531554</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.947368421052632</v>
+        <v>0.9019607843137259</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.707</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.017280763892706</v>
+        <v>-0.0565791738382099</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0970848667456287</v>
+        <v>-0.194183218661114</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0725547336167255</v>
+        <v>0.1125462997956</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.44423817435728</v>
+        <v>-0.6679949685739071</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1181,11 +1181,7 @@
           <t>Tura_1c</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1195,14 +1191,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.920272668835321</v>
+        <v>0.943281809581909</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.821428571428571</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.475</v>
+        <v>5.99</v>
       </c>
       <c r="K9" t="n">
-        <v>0.120412087912088</v>
+        <v>-0.361888156035141</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0100343406593404</v>
+        <v>-0.8068636247329209</v>
       </c>
       <c r="M9" t="n">
-        <v>0.268367394409004</v>
+        <v>-0.0176909368535409</v>
       </c>
       <c r="N9" t="n">
-        <v>1.42079159778274</v>
+        <v>-6.04153849808249</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1272,7 +1268,11 @@
           <t>Tura_1c</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.646872018947574</v>
+        <v>0.943281809581909</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.982456140350877</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.24</v>
+        <v>12.1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0549492395071236</v>
+        <v>-0.839157574568289</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.5136104339212429</v>
+        <v>-1.6413203246304</v>
       </c>
       <c r="M10" t="n">
-        <v>0.498684417725608</v>
+        <v>-0.034605171945784</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.04864960891457</v>
+        <v>-6.93518656668007</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.410044925564622</v>
+        <v>0.965427052146151</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.789473684210526</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>88</v>
+        <v>2.14</v>
       </c>
       <c r="K11" t="n">
-        <v>0.498521383075523</v>
+        <v>-0.177506238654773</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.87071008129931</v>
+        <v>-0.358205934975622</v>
       </c>
       <c r="M11" t="n">
-        <v>12.7014282359958</v>
+        <v>-0.0193909429597947</v>
       </c>
       <c r="N11" t="n">
-        <v>0.566501571676731</v>
+        <v>-8.29468404928847</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0694235932258955</v>
+        <v>0.943281809581909</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9649122807017541</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.7</v>
+        <v>36.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.771182680538556</v>
+        <v>-6.27576334379906</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.122662056301153</v>
+        <v>-10.4540971401664</v>
       </c>
       <c r="M12" t="n">
-        <v>1.85415816086346</v>
+        <v>-0.227793158233629</v>
       </c>
       <c r="N12" t="n">
-        <v>6.591304961868</v>
+        <v>-17.1938721747919</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.274612037056999</v>
+        <v>0.023083259740733</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9649122807017541</v>
+        <v>0.645161290322581</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.14</v>
+        <v>0.11</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0793645008613339</v>
+        <v>-0.0143446244477172</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0974932912310392</v>
+        <v>-0.0264698356393211</v>
       </c>
       <c r="M13" t="n">
-        <v>0.258232161069253</v>
+        <v>-0.0021769112157888</v>
       </c>
       <c r="N13" t="n">
-        <v>3.70862153557635</v>
+        <v>-13.0405676797429</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.943281809581909</v>
+        <v>0.999010277080207</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982456140350877</v>
+        <v>0.927927927927928</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.3</v>
+        <v>6.84</v>
       </c>
       <c r="K14" t="n">
-        <v>-4.28174438061938</v>
+        <v>0.251313896593057</v>
       </c>
       <c r="L14" t="n">
-        <v>-12.2044440645296</v>
+        <v>0.0986406362960886</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.513329935475757</v>
+        <v>0.368623193689622</v>
       </c>
       <c r="N14" t="n">
-        <v>-11.179489244437</v>
+        <v>3.67417977475229</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.023083259740733</v>
+        <v>0.009360022217982</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.645161290322581</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.11</v>
+        <v>0.768</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0143446244477172</v>
+        <v>0.0461867737525632</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0264698356393211</v>
+        <v>0.0152391185863349</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0021769112157888</v>
+        <v>0.0855711748354146</v>
       </c>
       <c r="N15" t="n">
-        <v>-13.0405676797429</v>
+        <v>6.013902832365</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0049439280165516</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0170940170940171</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.803418803418803</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.992549108461724</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.947368421052632</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>6.825</v>
+        <v>990</v>
       </c>
       <c r="K16" t="n">
-        <v>0.168225995316159</v>
+        <v>111.467356313899</v>
       </c>
       <c r="L16" t="n">
-        <v>0.057819608344612</v>
+        <v>23.7144968910966</v>
       </c>
       <c r="M16" t="n">
-        <v>0.269862671050557</v>
+        <v>236.016151989124</v>
       </c>
       <c r="N16" t="n">
-        <v>2.46484974822211</v>
+        <v>11.2593289205958</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0011417975477585</v>
+        <v>0.430649921812919</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="H17" t="n">
-        <v>0.965811965811966</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6830000000000001</v>
+        <v>3.85201965195695</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0622967018978984</v>
+        <v>0.0157103070470351</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0298491291897032</v>
+        <v>-0.165487810046635</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0991917794644407</v>
+        <v>0.233998751104125</v>
       </c>
       <c r="N17" t="n">
-        <v>9.121039809355549</v>
+        <v>0.407845973450675</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0295733274317413</v>
+        <v>0.0007786180270437</v>
       </c>
       <c r="G18" t="n">
         <v>0.0170940170940171</v>
       </c>
       <c r="H18" t="n">
-        <v>0.794871794871795</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>857</v>
+        <v>0.228</v>
       </c>
       <c r="K18" t="n">
-        <v>50.0689164335393</v>
+        <v>0.0298362572301648</v>
       </c>
       <c r="L18" t="n">
-        <v>3.21582883422873</v>
+        <v>0.0125549387843857</v>
       </c>
       <c r="M18" t="n">
-        <v>153.516586889424</v>
+        <v>0.0515053412040253</v>
       </c>
       <c r="N18" t="n">
-        <v>5.84234730846433</v>
+        <v>13.0860777325284</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.277183237642251</v>
+        <v>0.747982066773748</v>
       </c>
       <c r="G19" t="n">
-        <v>0.018018018018018</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9819819819819821</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.81794138601625</v>
+        <v>0.666</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0630032876428301</v>
+        <v>-0.0066226648351648</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.133195315817407</v>
+        <v>-0.0313817929531036</v>
       </c>
       <c r="M19" t="n">
-        <v>0.294734814851228</v>
+        <v>0.0112564085474484</v>
       </c>
       <c r="N19" t="n">
-        <v>1.65019001793974</v>
+        <v>-0.994394119394127</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7.09597869540454e-07</v>
+        <v>0.130844360632706</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0170940170940171</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.888888888888889</v>
+        <v>0.792792792792793</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.209</v>
+        <v>8.34</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0440181585108056</v>
+        <v>-0.0229953640109889</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0259789202064973</v>
+        <v>-0.0554207973711556</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0682335164835165</v>
+        <v>0.0100111256803829</v>
       </c>
       <c r="N20" t="n">
-        <v>21.0613198616295</v>
+        <v>-0.275723789100587</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,11 +2269,7 @@
           <t>Tura_1c</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2283,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2290,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.08643616027054719</v>
+        <v>0.06731005770987319</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H21" t="n">
-        <v>0.931623931623932</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7432</v>
+        <v>3.99</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0141728921124207</v>
+        <v>0.206141095890411</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0019287366873009</v>
+        <v>-0.0186286457709182</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0395086745642175</v>
+        <v>0.338625397445516</v>
       </c>
       <c r="N21" t="n">
-        <v>1.90700916474982</v>
+        <v>5.16644350602534</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2362,7 +2358,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.657573714291028</v>
+        <v>0.0018947493315511</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.767241379310345</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>8.34</v>
+        <v>8.85</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008697463380097199</v>
+        <v>0.469229037267081</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0250858516483513</v>
+        <v>0.19775998611394</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0488837476717243</v>
+        <v>0.760795585054219</v>
       </c>
       <c r="N22" t="n">
-        <v>0.104286131655843</v>
+        <v>5.30202301996701</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Tura_1c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.06731005770987319</v>
+        <v>0.0272027426890854</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008547008547008499</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.974358974358974</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.78</v>
+        <v>1.62</v>
       </c>
       <c r="K23" t="n">
-        <v>0.144105460750853</v>
+        <v>0.0524282296650718</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0186286457709182</v>
+        <v>0.0045979484158935</v>
       </c>
       <c r="M23" t="n">
-        <v>0.281151108426705</v>
+        <v>0.110067852845307</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8123137764776</v>
+        <v>3.23631047315258</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.62124228706829e-06</v>
+        <v>0.203690909492724</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008547008547008499</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.692307692307692</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51</v>
+        <v>30.7</v>
       </c>
       <c r="K24" t="n">
-        <v>5.84514051522248</v>
+        <v>0.351201923076923</v>
       </c>
       <c r="L24" t="n">
-        <v>3.28217414293531</v>
+        <v>-0.461485866750037</v>
       </c>
       <c r="M24" t="n">
-        <v>8.228931130688551</v>
+        <v>1.54664820768809</v>
       </c>
       <c r="N24" t="n">
-        <v>11.4610598337696</v>
+        <v>1.14398020546229</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.67224675603922e-05</v>
+        <v>0.999979995321116</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.965811965811966</v>
+        <v>0.923566878980892</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.52</v>
+        <v>6.52</v>
       </c>
       <c r="K25" t="n">
-        <v>0.616651206948413</v>
+        <v>0.183299957324726</v>
       </c>
       <c r="L25" t="n">
-        <v>0.345762674108483</v>
+        <v>0.103041024571975</v>
       </c>
       <c r="M25" t="n">
-        <v>0.876954472388647</v>
+        <v>0.260892857142858</v>
       </c>
       <c r="N25" t="n">
-        <v>7.23769022239922</v>
+        <v>2.81134903872279</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.84189523453878e-05</v>
+        <v>0.133338447981559</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.931623931623932</v>
+        <v>0.950920245398773</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.57</v>
+        <v>0.786</v>
       </c>
       <c r="K26" t="n">
-        <v>0.135039221647917</v>
+        <v>0.0148147927229347</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0701136021546046</v>
+        <v>-0.0066562590629419</v>
       </c>
       <c r="M26" t="n">
-        <v>0.183149929478017</v>
+        <v>0.0365833884490968</v>
       </c>
       <c r="N26" t="n">
-        <v>8.601224308784539</v>
+        <v>1.88483367976268</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0201417756371048</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0122699386503067</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.797546012269939</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0100313609545491</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.931623931623932</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>30.7</v>
+        <v>875</v>
       </c>
       <c r="K27" t="n">
-        <v>1.30197959183673</v>
+        <v>36.783849309959</v>
       </c>
       <c r="L27" t="n">
-        <v>0.285691771782566</v>
+        <v>4.95059204640872</v>
       </c>
       <c r="M27" t="n">
-        <v>2.64061384808182</v>
+        <v>98.656828675857</v>
       </c>
       <c r="N27" t="n">
-        <v>4.24097586917503</v>
+        <v>4.20386849256674</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2903,6 +2903,730 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.033553692461849</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0198675496688742</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.986754966887417</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.86757536389678</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.108123936956892</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0077572164721167</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.251817039709804</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.77057001947323</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0003392548342955</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0122699386503067</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.883435582822086</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0145814090019569</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0070952542708017</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0220301976622065</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.04415893814345</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.454054943721575</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0184049079754601</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.907975460122699</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0010002282062984</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0116487409475542</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0147486323287361</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.150184415360134</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.999999802088738</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.737179487179487</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.08526465798045629</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0587198858315563</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.110490592092443</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.06182637584628</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7659019039677259</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0061349693251533</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.98159509202454</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.0361393234258897</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.148246878155758</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0674343825936497</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.846354178592265</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.162440560620092</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.901840490797546</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.104357142857143</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0665171045675369</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.281865886117995</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.15952380952381</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.169477614578329</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.877300613496933</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0169930213464696</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.012327514563202</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0493149189217563</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.06874348091004</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.191081826888887</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.920245398773006</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.34985632183908</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.215202132804578</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.133310820353</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.23188845717986</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
+++ b/trend_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -133,37 +133,40 @@
     <t>Impact</t>
   </si>
   <si>
-    <t>Likely increasing</t>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Virtually certain increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -636,37 +639,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.895943658464032</v>
+        <v>0.343277754656715</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9807692307692309</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.555</v>
+        <v>7.8</v>
       </c>
       <c r="K2">
-        <v>0.352456215659341</v>
+        <v>-0.144075159914712</v>
       </c>
       <c r="L2">
-        <v>-0.128725225661293</v>
+        <v>-0.621546653478554</v>
       </c>
       <c r="M2">
-        <v>0.700376591609486</v>
+        <v>0.286412975996526</v>
       </c>
       <c r="N2">
-        <v>4.66520470760213</v>
+        <v>-1.847117434804</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -681,19 +684,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -713,31 +716,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.8052380555109691</v>
+        <v>0.803341518349425</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.854</v>
       </c>
       <c r="K3">
-        <v>-0.061069869804109</v>
+        <v>-0.0518147412536443</v>
       </c>
       <c r="L3">
-        <v>-0.198903203963846</v>
+        <v>-0.171256254430565</v>
       </c>
       <c r="M3">
-        <v>0.0650219904750277</v>
+        <v>0.051244687750877</v>
       </c>
       <c r="N3">
-        <v>-6.1069869804109</v>
+        <v>-6.06729991260472</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -752,19 +755,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -784,37 +787,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.605857379774301</v>
+        <v>0.820060400135513</v>
       </c>
       <c r="G4">
         <v>0.0175438596491228</v>
       </c>
       <c r="H4">
-        <v>0.8947368421052631</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K4">
-        <v>-12.5863576855493</v>
+        <v>-70.37742672074469</v>
       </c>
       <c r="L4">
-        <v>-271.774189765989</v>
+        <v>-358.86118863411</v>
       </c>
       <c r="M4">
-        <v>304.235248638082</v>
+        <v>94.3700333676575</v>
       </c>
       <c r="N4">
-        <v>-0.629317884277465</v>
+        <v>-3.70407509056551</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>1784937.706</v>
@@ -823,19 +826,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -855,37 +858,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.982418034386236</v>
+        <v>0.8631629408438291</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.9761904761904761</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.3202063257197</v>
+        <v>2.95562032399266</v>
       </c>
       <c r="K5">
-        <v>-1.3076060142749</v>
+        <v>-0.280054033442797</v>
       </c>
       <c r="L5">
-        <v>-2.71243273389138</v>
+        <v>-1.58198742400213</v>
       </c>
       <c r="M5">
-        <v>-0.236620543147382</v>
+        <v>0.204355610626753</v>
       </c>
       <c r="N5">
-        <v>-24.5781072052316</v>
+        <v>-9.47530476663122</v>
       </c>
       <c r="O5" t="s">
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>1784937.706</v>
@@ -894,19 +897,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -926,37 +929,37 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.983580399343859</v>
+        <v>0.986908382585917</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H6">
-        <v>0.982456140350877</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.613</v>
+        <v>0.47</v>
       </c>
       <c r="K6">
-        <v>-0.09310434654631081</v>
+        <v>-0.0781117371434536</v>
       </c>
       <c r="L6">
-        <v>-0.186590571428571</v>
+        <v>-0.157738895332652</v>
       </c>
       <c r="M6">
-        <v>-0.0221947398244991</v>
+        <v>-0.0221471666237627</v>
       </c>
       <c r="N6">
-        <v>-15.188311018974</v>
+        <v>-16.6195185411603</v>
       </c>
       <c r="O6" t="s">
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>1784937.706</v>
@@ -965,19 +968,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,13 +1000,13 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.9774271814565409</v>
+        <v>0.964360561021136</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9649122807017541</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1012,22 +1015,22 @@
         <v>0.64</v>
       </c>
       <c r="K7">
-        <v>-0.07422276356456051</v>
+        <v>-0.08568290512304599</v>
       </c>
       <c r="L7">
-        <v>-0.141302945441254</v>
+        <v>-0.160787794024769</v>
       </c>
       <c r="M7">
-        <v>-0.0111980557020838</v>
+        <v>-0.0092613358803655</v>
       </c>
       <c r="N7">
-        <v>-11.5973068069626</v>
+        <v>-13.3879539254759</v>
       </c>
       <c r="O7" t="s">
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7">
         <v>1784937.706</v>
@@ -1036,19 +1039,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,37 +1071,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.232340775531554</v>
+        <v>0.231552327220328</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.9019607843137259</v>
+        <v>0.955555555555556</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.470000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K8">
-        <v>-0.0565791738382099</v>
+        <v>-0.0631994443389059</v>
       </c>
       <c r="L8">
-        <v>-0.194183218661114</v>
+        <v>-0.222867177722179</v>
       </c>
       <c r="M8">
-        <v>0.1125462997956</v>
+        <v>0.0970527566223561</v>
       </c>
       <c r="N8">
-        <v>-0.6679949685739071</v>
+        <v>-0.733172208107957</v>
       </c>
       <c r="O8" t="s">
         <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8">
         <v>1784937.706</v>
@@ -1107,16 +1110,16 @@
         <v>5565566.687</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1136,37 +1139,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.943281809581909</v>
+        <v>0.958513469637794</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.982456140350877</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.99</v>
+        <v>4.24</v>
       </c>
       <c r="K9">
-        <v>-0.361888156035141</v>
+        <v>-0.266045327604726</v>
       </c>
       <c r="L9">
-        <v>-0.8068636247329209</v>
+        <v>-0.559618537444468</v>
       </c>
       <c r="M9">
-        <v>-0.0176909368535409</v>
+        <v>-0.0305566698673935</v>
       </c>
       <c r="N9">
-        <v>-6.04153849808249</v>
+        <v>-6.27465395294165</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>1784937.706</v>
@@ -1175,19 +1178,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1201,19 +1204,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.943281809581909</v>
+        <v>0.347375218121471</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.947368421052632</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1222,22 +1225,22 @@
         <v>12.1</v>
       </c>
       <c r="K10">
-        <v>-0.839157574568289</v>
+        <v>0.249829851000065</v>
       </c>
       <c r="L10">
-        <v>-1.6413203246304</v>
+        <v>-0.69501278740919</v>
       </c>
       <c r="M10">
-        <v>-0.034605171945784</v>
+        <v>1.13397702317973</v>
       </c>
       <c r="N10">
-        <v>-6.93518656668007</v>
+        <v>2.06470951239723</v>
       </c>
       <c r="O10" t="s">
         <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q10">
         <v>1784937.706</v>
@@ -1246,19 +1249,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,37 +1281,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.965427052146151</v>
+        <v>0.546587375708535</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.947368421052632</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="K11">
-        <v>-0.177506238654773</v>
+        <v>-0.008541991995073901</v>
       </c>
       <c r="L11">
-        <v>-0.358205934975622</v>
+        <v>-0.178112881773018</v>
       </c>
       <c r="M11">
-        <v>-0.0193909429597947</v>
+        <v>0.155419704181037</v>
       </c>
       <c r="N11">
-        <v>-8.29468404928847</v>
+        <v>-0.404833743842365</v>
       </c>
       <c r="O11" t="s">
         <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q11">
         <v>1784937.706</v>
@@ -1317,19 +1320,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>36.5</v>
+        <v>31.1</v>
       </c>
       <c r="K12">
-        <v>-6.27576334379906</v>
+        <v>-5.4664787044166</v>
       </c>
       <c r="L12">
-        <v>-10.4540971401664</v>
+        <v>-9.0241879474419</v>
       </c>
       <c r="M12">
-        <v>-0.227793158233629</v>
+        <v>-0.243172106700176</v>
       </c>
       <c r="N12">
-        <v>-17.1938721747919</v>
+        <v>-17.5771019434617</v>
       </c>
       <c r="O12" t="s">
         <v>38</v>
@@ -1388,19 +1391,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,31 +1423,31 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.023083259740733</v>
+        <v>0.013931189330693</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.645161290322581</v>
+        <v>0.612903225806452</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K13">
-        <v>-0.0143446244477172</v>
+        <v>-0.0136911703456893</v>
       </c>
       <c r="L13">
-        <v>-0.0264698356393211</v>
+        <v>-0.0262172363981324</v>
       </c>
       <c r="M13">
-        <v>-0.0021769112157888</v>
+        <v>-0.0028548287879937</v>
       </c>
       <c r="N13">
-        <v>-13.0405676797429</v>
+        <v>-13.6911703456893</v>
       </c>
       <c r="O13" t="s">
         <v>38</v>
@@ -1459,19 +1462,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,31 +1494,31 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.999010277080207</v>
+        <v>0.989255265464026</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.927927927927928</v>
+        <v>0.923809523809524</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.84</v>
+        <v>6.98</v>
       </c>
       <c r="K14">
-        <v>0.251313896593057</v>
+        <v>0.226435309973046</v>
       </c>
       <c r="L14">
-        <v>0.0986406362960886</v>
+        <v>0.0738058239879298</v>
       </c>
       <c r="M14">
-        <v>0.368623193689622</v>
+        <v>0.352461625990264</v>
       </c>
       <c r="N14">
-        <v>3.67417977475229</v>
+        <v>3.24405888213533</v>
       </c>
       <c r="O14" t="s">
         <v>38</v>
@@ -1530,19 +1533,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,7 +1565,7 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.009360022217982</v>
+        <v>0.0240192758799584</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1574,25 +1577,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.768</v>
+        <v>0.702</v>
       </c>
       <c r="K15">
-        <v>0.0461867737525632</v>
+        <v>0.0389466848940533</v>
       </c>
       <c r="L15">
-        <v>0.0152391185863349</v>
+        <v>0.0051788771170133</v>
       </c>
       <c r="M15">
-        <v>0.0855711748354146</v>
+        <v>0.0683713981546983</v>
       </c>
       <c r="N15">
-        <v>6.013902832365</v>
+        <v>5.54796081111871</v>
       </c>
       <c r="O15" t="s">
         <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1784937.706</v>
@@ -1601,19 +1604,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1633,31 +1636,31 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0049439280165516</v>
+        <v>0.159493711976267</v>
       </c>
       <c r="G16">
         <v>0.0170940170940171</v>
       </c>
       <c r="H16">
-        <v>0.803418803418803</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>990</v>
+        <v>1252</v>
       </c>
       <c r="K16">
-        <v>111.467356313899</v>
+        <v>32.433938172043</v>
       </c>
       <c r="L16">
-        <v>23.7144968910966</v>
+        <v>-12.7648903368003</v>
       </c>
       <c r="M16">
-        <v>236.016151989124</v>
+        <v>157.090845908619</v>
       </c>
       <c r="N16">
-        <v>11.2593289205958</v>
+        <v>2.59057014153698</v>
       </c>
       <c r="O16" t="s">
         <v>38</v>
@@ -1672,19 +1675,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1701,40 +1704,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>0.430649921812919</v>
+        <v>0.265850066648928</v>
       </c>
       <c r="G17">
-        <v>0.0188679245283019</v>
+        <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.981132075471698</v>
+        <v>0.97</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>3.85201965195695</v>
+        <v>3.07470066768296</v>
       </c>
       <c r="K17">
-        <v>0.0157103070470351</v>
+        <v>0.057819938354667</v>
       </c>
       <c r="L17">
-        <v>-0.165487810046635</v>
+        <v>-0.0991858160205904</v>
       </c>
       <c r="M17">
-        <v>0.233998751104125</v>
+        <v>0.271251917988205</v>
       </c>
       <c r="N17">
-        <v>0.407845973450675</v>
+        <v>1.88050625423121</v>
       </c>
       <c r="O17" t="s">
         <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1784937.706</v>
@@ -1743,19 +1746,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1775,37 +1778,37 @@
         <v>36</v>
       </c>
       <c r="F18">
-        <v>0.0007786180270437</v>
+        <v>0.0022984648591665</v>
       </c>
       <c r="G18">
-        <v>0.0170940170940171</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H18">
-        <v>0.905982905982906</v>
+        <v>0.9145299145299149</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.228</v>
+        <v>0.238</v>
       </c>
       <c r="K18">
-        <v>0.0298362572301648</v>
+        <v>0.0264504579630895</v>
       </c>
       <c r="L18">
-        <v>0.0125549387843857</v>
+        <v>0.0108699332244781</v>
       </c>
       <c r="M18">
-        <v>0.0515053412040253</v>
+        <v>0.0469719257900455</v>
       </c>
       <c r="N18">
-        <v>13.0860777325284</v>
+        <v>11.1136377996175</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18">
         <v>1784937.706</v>
@@ -1814,19 +1817,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1846,31 +1849,31 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.747982066773748</v>
+        <v>0.7306238529201911</v>
       </c>
       <c r="G19">
         <v>0.0256410256410256</v>
       </c>
       <c r="H19">
-        <v>0.905982905982906</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.666</v>
+        <v>0.662</v>
       </c>
       <c r="K19">
-        <v>-0.0066226648351648</v>
+        <v>-0.0076984777517564</v>
       </c>
       <c r="L19">
-        <v>-0.0313817929531036</v>
+        <v>-0.0293467192758805</v>
       </c>
       <c r="M19">
-        <v>0.0112564085474484</v>
+        <v>0.0145698437313263</v>
       </c>
       <c r="N19">
-        <v>-0.994394119394127</v>
+        <v>-1.16291204709312</v>
       </c>
       <c r="O19" t="s">
         <v>38</v>
@@ -1885,19 +1888,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1917,37 +1920,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.130844360632706</v>
+        <v>0.549332522870362</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.792792792792793</v>
+        <v>0.79047619047619</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.34</v>
+        <v>8.43</v>
       </c>
       <c r="K20">
-        <v>-0.0229953640109889</v>
+        <v>0.0042886497064579</v>
       </c>
       <c r="L20">
-        <v>-0.0554207973711556</v>
+        <v>-0.0329545991823453</v>
       </c>
       <c r="M20">
-        <v>0.0100111256803829</v>
+        <v>0.0484131853488381</v>
       </c>
       <c r="N20">
-        <v>-0.275723789100587</v>
+        <v>0.0508736619983151</v>
       </c>
       <c r="O20" t="s">
         <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q20">
         <v>1784937.706</v>
@@ -1956,16 +1959,16 @@
         <v>5565566.687</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1982,40 +1985,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>0.06731005770987319</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
         <v>0.008547008547008499</v>
       </c>
       <c r="H21">
-        <v>0.974358974358974</v>
+        <v>0.957264957264957</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3.99</v>
+        <v>3.96</v>
       </c>
       <c r="K21">
-        <v>0.206141095890411</v>
+        <v>-0.0082042477203647</v>
       </c>
       <c r="L21">
-        <v>-0.0186286457709182</v>
+        <v>-0.196739637076266</v>
       </c>
       <c r="M21">
-        <v>0.338625397445516</v>
+        <v>0.198640886428009</v>
       </c>
       <c r="N21">
-        <v>5.16644350602534</v>
+        <v>-0.207177972736484</v>
       </c>
       <c r="O21" t="s">
         <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q21">
         <v>1784937.706</v>
@@ -2024,19 +2027,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,37 +2059,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0018947493315511</v>
+        <v>0.0006949941939797</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.948717948717949</v>
+        <v>0.931623931623932</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.85</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K22">
-        <v>0.469229037267081</v>
+        <v>0.5460679499072359</v>
       </c>
       <c r="L22">
-        <v>0.19775998611394</v>
+        <v>0.276573149503709</v>
       </c>
       <c r="M22">
-        <v>0.760795585054219</v>
+        <v>0.836086880233362</v>
       </c>
       <c r="N22">
-        <v>5.30202301996701</v>
+        <v>5.62376879410129</v>
       </c>
       <c r="O22" t="s">
         <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1784937.706</v>
@@ -2095,19 +2098,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,37 +2130,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0272027426890854</v>
+        <v>0.0013846131685836</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.923076923076923</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K23">
-        <v>0.0524282296650718</v>
+        <v>0.0823872180451128</v>
       </c>
       <c r="L23">
-        <v>0.0045979484158935</v>
+        <v>0.0384837591034791</v>
       </c>
       <c r="M23">
-        <v>0.110067852845307</v>
+        <v>0.142932970924628</v>
       </c>
       <c r="N23">
-        <v>3.23631047315258</v>
+        <v>4.76226693902386</v>
       </c>
       <c r="O23" t="s">
         <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>1784937.706</v>
@@ -2166,19 +2169,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,13 +2201,13 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.203690909492724</v>
+        <v>0.415377764920461</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.9401709401709401</v>
+        <v>0.957264957264957</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2213,22 +2216,22 @@
         <v>30.7</v>
       </c>
       <c r="K24">
-        <v>0.351201923076923</v>
+        <v>0.100102774922919</v>
       </c>
       <c r="L24">
-        <v>-0.461485866750037</v>
+        <v>-0.932577890204175</v>
       </c>
       <c r="M24">
-        <v>1.54664820768809</v>
+        <v>1.08766742269994</v>
       </c>
       <c r="N24">
-        <v>1.14398020546229</v>
+        <v>0.326067670758693</v>
       </c>
       <c r="O24" t="s">
         <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q24">
         <v>1784937.706</v>
@@ -2237,19 +2240,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,13 +2272,13 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.999979995321116</v>
+        <v>0.999978808024907</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.923566878980892</v>
+        <v>0.920245398773006</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2284,22 +2287,22 @@
         <v>6.52</v>
       </c>
       <c r="K25">
-        <v>0.183299957324726</v>
+        <v>0.169779308958719</v>
       </c>
       <c r="L25">
-        <v>0.103041024571975</v>
+        <v>0.0989692899852317</v>
       </c>
       <c r="M25">
-        <v>0.260892857142858</v>
+        <v>0.240423525916133</v>
       </c>
       <c r="N25">
-        <v>2.81134903872279</v>
+        <v>2.6039771312687</v>
       </c>
       <c r="O25" t="s">
         <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1784937.706</v>
@@ -2308,19 +2311,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,37 +2343,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.133338447981559</v>
+        <v>0.273378438066012</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.950920245398773</v>
+        <v>0.948571428571429</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.786</v>
+        <v>0.768</v>
       </c>
       <c r="K26">
-        <v>0.0148147927229347</v>
+        <v>0.0062723369835739</v>
       </c>
       <c r="L26">
-        <v>-0.0066562590629419</v>
+        <v>-0.0116593861718596</v>
       </c>
       <c r="M26">
-        <v>0.0365833884490968</v>
+        <v>0.0251076405192301</v>
       </c>
       <c r="N26">
-        <v>1.88483367976268</v>
+        <v>0.816710544736187</v>
       </c>
       <c r="O26" t="s">
         <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1784937.706</v>
@@ -2379,19 +2382,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,13 +2414,13 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.0201417756371048</v>
+        <v>0.0740020538285202</v>
       </c>
       <c r="G27">
-        <v>0.0122699386503067</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H27">
-        <v>0.797546012269939</v>
+        <v>0.828571428571429</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2426,22 +2429,22 @@
         <v>875</v>
       </c>
       <c r="K27">
-        <v>36.783849309959</v>
+        <v>21.7317204301075</v>
       </c>
       <c r="L27">
-        <v>4.95059204640872</v>
+        <v>-1.77966289911655</v>
       </c>
       <c r="M27">
-        <v>98.656828675857</v>
+        <v>72.60406724895751</v>
       </c>
       <c r="N27">
-        <v>4.20386849256674</v>
+        <v>2.48362519201229</v>
       </c>
       <c r="O27" t="s">
         <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1784937.706</v>
@@ -2450,19 +2453,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2482,13 +2485,13 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.033553692461849</v>
+        <v>0.0512118147133096</v>
       </c>
       <c r="G28">
-        <v>0.0198675496688742</v>
+        <v>0.0191082802547771</v>
       </c>
       <c r="H28">
-        <v>0.986754966887417</v>
+        <v>0.980891719745223</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2497,22 +2500,22 @@
         <v>2.86757536389678</v>
       </c>
       <c r="K28">
-        <v>0.108123936956892</v>
+        <v>0.08685790700501921</v>
       </c>
       <c r="L28">
-        <v>0.0077572164721167</v>
+        <v>-0.0003761008300369</v>
       </c>
       <c r="M28">
-        <v>0.251817039709804</v>
+        <v>0.223673158101064</v>
       </c>
       <c r="N28">
-        <v>3.77057001947323</v>
+        <v>3.02896684420482</v>
       </c>
       <c r="O28" t="s">
         <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1784937.706</v>
@@ -2521,19 +2524,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2547,43 +2550,43 @@
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.0003392548342955</v>
+        <v>0.0006475175448698</v>
       </c>
       <c r="G29">
-        <v>0.0122699386503067</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="H29">
-        <v>0.883435582822086</v>
+        <v>0.88</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.207</v>
+        <v>0.214</v>
       </c>
       <c r="K29">
-        <v>0.0145814090019569</v>
+        <v>0.0149326832706767</v>
       </c>
       <c r="L29">
-        <v>0.0070952542708017</v>
+        <v>0.0071690128683872</v>
       </c>
       <c r="M29">
-        <v>0.0220301976622065</v>
+        <v>0.0234839409746189</v>
       </c>
       <c r="N29">
-        <v>7.04415893814345</v>
+        <v>6.97788937882088</v>
       </c>
       <c r="O29" t="s">
         <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1784937.706</v>
@@ -2592,19 +2595,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2624,37 +2627,37 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>0.454054943721575</v>
+        <v>0.511858637910186</v>
       </c>
       <c r="G30">
-        <v>0.0184049079754601</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="H30">
-        <v>0.907975460122699</v>
+        <v>0.902857142857143</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.666</v>
+        <v>0.667</v>
       </c>
       <c r="K30">
-        <v>0.0010002282062984</v>
+        <v>-8.49828984153756E-05</v>
       </c>
       <c r="L30">
-        <v>-0.0116487409475542</v>
+        <v>-0.0116293241712013</v>
       </c>
       <c r="M30">
-        <v>0.0147486323287361</v>
+        <v>0.0128844527698971</v>
       </c>
       <c r="N30">
-        <v>0.150184415360134</v>
+        <v>-0.0127410642301912</v>
       </c>
       <c r="O30" t="s">
         <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q30">
         <v>1784937.706</v>
@@ -2663,19 +2666,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2695,37 +2698,37 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.999999802088738</v>
+        <v>0.999999995190136</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.737179487179487</v>
+        <v>0.7345679012345681</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>8.029999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="K31">
-        <v>0.08526465798045629</v>
+        <v>0.0883545435422802</v>
       </c>
       <c r="L31">
-        <v>0.0587198858315563</v>
+        <v>0.0639737274220033</v>
       </c>
       <c r="M31">
-        <v>0.110490592092443</v>
+        <v>0.11198398537049</v>
       </c>
       <c r="N31">
-        <v>1.06182637584628</v>
+        <v>1.09893710873483</v>
       </c>
       <c r="O31" t="s">
         <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1784937.706</v>
@@ -2734,16 +2737,16 @@
         <v>5565566.687</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2763,37 +2766,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.7659019039677259</v>
+        <v>0.970461477228625</v>
       </c>
       <c r="G32">
-        <v>0.0061349693251533</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H32">
-        <v>0.98159509202454</v>
+        <v>0.971428571428571</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="K32">
-        <v>-0.0361393234258897</v>
+        <v>-0.089192426439754</v>
       </c>
       <c r="L32">
-        <v>-0.148246878155758</v>
+        <v>-0.19982718748417</v>
       </c>
       <c r="M32">
-        <v>0.0674343825936497</v>
+        <v>-0.0152938033460564</v>
       </c>
       <c r="N32">
-        <v>-0.846354178592265</v>
+        <v>-2.13379010621421</v>
       </c>
       <c r="O32" t="s">
         <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q32">
         <v>1784937.706</v>
@@ -2802,19 +2805,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2834,37 +2837,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.162440560620092</v>
+        <v>0.0357141174854854</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.901840490797546</v>
+        <v>0.891428571428571</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="K33">
-        <v>0.104357142857143</v>
+        <v>0.170766233766234</v>
       </c>
       <c r="L33">
-        <v>-0.0665171045675369</v>
+        <v>0.018203502211967</v>
       </c>
       <c r="M33">
-        <v>0.281865886117995</v>
+        <v>0.329075553927015</v>
       </c>
       <c r="N33">
-        <v>1.15952380952381</v>
+        <v>1.84612144612145</v>
       </c>
       <c r="O33" t="s">
         <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1784937.706</v>
@@ -2873,19 +2876,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2905,37 +2908,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.169477614578329</v>
+        <v>0.0257630445094579</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.877300613496933</v>
+        <v>0.868571428571429</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="K34">
-        <v>0.0169930213464696</v>
+        <v>0.0316234570637844</v>
       </c>
       <c r="L34">
-        <v>-0.012327514563202</v>
+        <v>0.0049984825840237</v>
       </c>
       <c r="M34">
-        <v>0.0493149189217563</v>
+        <v>0.0587221898551197</v>
       </c>
       <c r="N34">
-        <v>1.06874348091004</v>
+        <v>1.91657315538087</v>
       </c>
       <c r="O34" t="s">
         <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1784937.706</v>
@@ -2944,19 +2947,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2976,13 +2979,13 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.191081826888887</v>
+        <v>0.174486004104179</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.920245398773006</v>
+        <v>0.92</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2991,22 +2994,22 @@
         <v>28.4</v>
       </c>
       <c r="K35">
-        <v>0.34985632183908</v>
+        <v>0.349968097021777</v>
       </c>
       <c r="L35">
-        <v>-0.215202132804578</v>
+        <v>-0.203908519402388</v>
       </c>
       <c r="M35">
-        <v>1.133310820353</v>
+        <v>1.0171181024667</v>
       </c>
       <c r="N35">
-        <v>1.23188845717986</v>
+        <v>1.23228203176682</v>
       </c>
       <c r="O35" t="s">
         <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q35">
         <v>1784937.706</v>
@@ -3015,19 +3018,19 @@
         <v>5565566.687</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
